--- a/prueba.xlsx
+++ b/prueba.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://soysena-my.sharepoint.com/personal/gmramirez95_soy_sena_edu_co/Documents/Documentos/UiPath/PruebaTecnicaHitts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_AD4D2F04E46CFB4ACB3E20D695D6FF46693EDF15" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{62E31E1C-2C0E-4B1F-BF65-B3DAD3F3CE37}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="11_AD4D2F04E46CFB4ACB3E20D695D6FF46693EDF15" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E54E77D9-E6E0-4CD2-88C4-AF9165E30429}"/>
   <bookViews>
     <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,12 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="1">
   <si>
-    <t>Producto</t>
-  </si>
-  <si>
-    <t>Precio</t>
+    <t>System.String[]</t>
   </si>
 </sst>
 </file>
@@ -352,20 +349,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A2:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
+      <c r="B2" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
